--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18229"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18326"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="9">
   <si>
     <t>Datum</t>
   </si>
@@ -44,11 +44,14 @@
   <si>
     <t xml:space="preserve">Einrichten von Git, Literaturrecherche &amp; Organisatorisches </t>
   </si>
+  <si>
+    <t xml:space="preserve">SLLC for PuFs , Literaturrecherche </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -203,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -220,19 +223,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
@@ -246,6 +240,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,11 +538,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7:N7"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,15 +585,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-      <c r="N3" s="24"/>
+      <c r="H3" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="20"/>
+      <c r="N3" s="21"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -597,15 +609,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="19"/>
-      <c r="N4" s="21"/>
+      <c r="H4" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="18"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -621,15 +633,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="21"/>
+      <c r="H5" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="17"/>
+      <c r="N5" s="18"/>
       <c r="O5" t="s">
         <v>5</v>
       </c>
@@ -645,15 +657,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="21"/>
+      <c r="H6" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
+      <c r="L6" s="17"/>
+      <c r="M6" s="17"/>
+      <c r="N6" s="18"/>
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -678,15 +690,15 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="16" t="s">
+      <c r="H7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="17"/>
-      <c r="N7" s="18"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="24"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -695,22 +707,31 @@
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
+      <c r="A8" s="7">
+        <v>42964</v>
+      </c>
+      <c r="B8" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D8" s="4"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="8">
+        <f t="shared" ref="E8:E10" si="0">C8-B8</f>
+        <v>0.16666666666666669</v>
+      </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="21"/>
+      <c r="H8" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
       <c r="O8" t="s">
         <v>5</v>
       </c>
@@ -726,15 +747,15 @@
       <c r="E9" s="8"/>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="21"/>
+      <c r="H9" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="17"/>
+      <c r="M9" s="17"/>
+      <c r="N9" s="18"/>
       <c r="O9" t="s">
         <v>5</v>
       </c>
@@ -750,15 +771,15 @@
       <c r="E10" s="8"/>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="21"/>
+      <c r="H10" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17"/>
+      <c r="N10" s="18"/>
       <c r="O10" t="s">
         <v>5</v>
       </c>
@@ -774,15 +795,15 @@
       <c r="E11" s="8"/>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="21"/>
+      <c r="H11" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="17"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="18"/>
       <c r="O11" t="s">
         <v>5</v>
       </c>
@@ -798,15 +819,15 @@
       <c r="E12" s="8"/>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="21"/>
+      <c r="H12" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="17"/>
+      <c r="M12" s="17"/>
+      <c r="N12" s="18"/>
       <c r="O12" t="s">
         <v>5</v>
       </c>
@@ -822,15 +843,15 @@
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="21"/>
+      <c r="H13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="17"/>
+      <c r="M13" s="17"/>
+      <c r="N13" s="18"/>
       <c r="O13" t="s">
         <v>5</v>
       </c>
@@ -846,15 +867,15 @@
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="21"/>
+      <c r="H14" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="17"/>
+      <c r="M14" s="17"/>
+      <c r="N14" s="18"/>
       <c r="O14" t="s">
         <v>5</v>
       </c>
@@ -1902,14 +1923,13 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
+      <c r="E48">
+        <f>SUM(E3:E9)</f>
+        <v>0.35416666666666663</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H13:N13"/>
     <mergeCell ref="H14:N14"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="H8:N8"/>
@@ -1917,6 +1937,11 @@
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -206,7 +206,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -232,15 +232,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -259,6 +250,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -541,8 +542,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E48" sqref="E48"/>
+    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3:N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -585,15 +586,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
-      <c r="K3" s="20"/>
-      <c r="L3" s="20"/>
-      <c r="M3" s="20"/>
-      <c r="N3" s="21"/>
+      <c r="H3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="27"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -690,15 +691,15 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="22" t="s">
+      <c r="H7" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-      <c r="N7" s="24"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="21"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -723,15 +724,15 @@
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="25" t="s">
+      <c r="H8" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="27"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="24"/>
       <c r="O8" t="s">
         <v>5</v>
       </c>
@@ -740,22 +741,31 @@
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
+      <c r="A9" s="7">
+        <v>42964</v>
+      </c>
+      <c r="B9" s="8">
+        <v>0.5625</v>
+      </c>
+      <c r="C9" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D9" s="4"/>
-      <c r="E9" s="8"/>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>0.10416666666666663</v>
+      </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="17"/>
-      <c r="N9" s="18"/>
+      <c r="H9" s="22" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="24"/>
       <c r="O9" t="s">
         <v>5</v>
       </c>
@@ -1923,13 +1933,18 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="E48">
-        <f>SUM(E3:E9)</f>
-        <v>0.35416666666666663</v>
+      <c r="E48" s="28">
+        <f>SUM(E7:E9)</f>
+        <v>0.45833333333333326</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H5:N5"/>
+    <mergeCell ref="H4:N4"/>
+    <mergeCell ref="H3:N3"/>
+    <mergeCell ref="H13:N13"/>
     <mergeCell ref="H14:N14"/>
     <mergeCell ref="H7:N7"/>
     <mergeCell ref="H8:N8"/>
@@ -1937,11 +1952,6 @@
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="H12:N12"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H5:N5"/>
-    <mergeCell ref="H4:N4"/>
-    <mergeCell ref="H3:N3"/>
-    <mergeCell ref="H13:N13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="10">
   <si>
     <t>Datum</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">SLLC for PuFs , Literaturrecherche </t>
+  </si>
+  <si>
+    <t>LDPC-codes</t>
   </si>
 </sst>
 </file>
@@ -223,6 +226,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -259,7 +263,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -543,7 +546,7 @@
   <dimension ref="A2:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:N3"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,15 +589,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="27"/>
+      <c r="H3" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="27"/>
+      <c r="J3" s="27"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="27"/>
+      <c r="M3" s="27"/>
+      <c r="N3" s="28"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -610,15 +613,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="17"/>
-      <c r="N4" s="18"/>
+      <c r="H4" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="18"/>
+      <c r="N4" s="19"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -634,15 +637,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="18"/>
+      <c r="H5" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="18"/>
+      <c r="M5" s="18"/>
+      <c r="N5" s="19"/>
       <c r="O5" t="s">
         <v>5</v>
       </c>
@@ -658,15 +661,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
-      <c r="N6" s="18"/>
+      <c r="H6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="19"/>
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -691,15 +694,15 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
-      <c r="L7" s="20"/>
-      <c r="M7" s="20"/>
-      <c r="N7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -719,20 +722,20 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E10" si="0">C8-B8</f>
+        <f t="shared" ref="E8:E12" si="0">C8-B8</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="22" t="s">
+      <c r="H8" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-      <c r="N8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="25"/>
       <c r="O8" t="s">
         <v>5</v>
       </c>
@@ -757,15 +760,15 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="22" t="s">
+      <c r="H9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-      <c r="N9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="25"/>
       <c r="O9" t="s">
         <v>5</v>
       </c>
@@ -774,22 +777,31 @@
       </c>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="4"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="6"/>
+      <c r="A10" s="7">
+        <v>42965</v>
+      </c>
+      <c r="B10" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="D10" s="4"/>
-      <c r="E10" s="8"/>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="17"/>
-      <c r="N10" s="18"/>
+      <c r="H10" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="25"/>
       <c r="O10" t="s">
         <v>5</v>
       </c>
@@ -798,22 +810,31 @@
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
+      <c r="A11" s="7">
+        <v>42965</v>
+      </c>
+      <c r="B11" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D11" s="4"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="18"/>
+      <c r="H11" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="25"/>
       <c r="O11" t="s">
         <v>5</v>
       </c>
@@ -822,22 +843,31 @@
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
+      <c r="A12" s="7">
+        <v>42966</v>
+      </c>
+      <c r="B12" s="8">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C12" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D12" s="4"/>
-      <c r="E12" s="8"/>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>0.14583333333333331</v>
+      </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="17"/>
-      <c r="N12" s="18"/>
+      <c r="H12" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="25"/>
       <c r="O12" t="s">
         <v>5</v>
       </c>
@@ -846,22 +876,24 @@
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7">
+        <v>42967</v>
+      </c>
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
       <c r="D13" s="4"/>
       <c r="E13" s="8"/>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="17"/>
-      <c r="N13" s="18"/>
+      <c r="H13" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+      <c r="M13" s="18"/>
+      <c r="N13" s="19"/>
       <c r="O13" t="s">
         <v>5</v>
       </c>
@@ -870,22 +902,24 @@
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7">
+        <v>42968</v>
+      </c>
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
       <c r="D14" s="4"/>
       <c r="E14" s="8"/>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="17"/>
-      <c r="N14" s="18"/>
+      <c r="H14" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+      <c r="M14" s="18"/>
+      <c r="N14" s="19"/>
       <c r="O14" t="s">
         <v>5</v>
       </c>
@@ -894,7 +928,9 @@
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7">
+        <v>42969</v>
+      </c>
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
       <c r="D15" s="4"/>
@@ -926,7 +962,9 @@
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7">
+        <v>42970</v>
+      </c>
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
       <c r="D16" s="4"/>
@@ -958,7 +996,9 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7">
+        <v>42971</v>
+      </c>
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
       <c r="D17" s="4"/>
@@ -990,7 +1030,9 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7">
+        <v>42972</v>
+      </c>
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
@@ -1022,7 +1064,9 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7">
+        <v>42973</v>
+      </c>
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
       <c r="D19" s="4"/>
@@ -1050,7 +1094,9 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
+      <c r="A20" s="7">
+        <v>42974</v>
+      </c>
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
       <c r="D20" s="4"/>
@@ -1082,7 +1128,9 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7">
+        <v>42975</v>
+      </c>
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
       <c r="D21" s="4"/>
@@ -1114,7 +1162,9 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7">
+        <v>42976</v>
+      </c>
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
@@ -1933,9 +1983,9 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="28">
-        <f>SUM(E7:E9)</f>
-        <v>0.45833333333333326</v>
+      <c r="E48" s="16">
+        <f>SUM(E7:E47)</f>
+        <v>0.77083333333333326</v>
       </c>
     </row>
   </sheetData>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>LDPC-codes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPC-codes construction, Start Programming euclidian geometry </t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -263,6 +266,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -546,7 +550,7 @@
   <dimension ref="A2:P48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="H14" sqref="H14:N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -722,7 +726,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E12" si="0">C8-B8</f>
+        <f t="shared" ref="E8:E14" si="0">C8-B8</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="F8" s="5"/>
@@ -879,21 +883,28 @@
       <c r="A13" s="7">
         <v>42967</v>
       </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
+      <c r="B13" s="8">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="C13" s="9">
+        <v>0.5</v>
+      </c>
       <c r="D13" s="4"/>
-      <c r="E13" s="8"/>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="19"/>
+      <c r="H13" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="25"/>
       <c r="O13" t="s">
         <v>5</v>
       </c>
@@ -905,21 +916,28 @@
       <c r="A14" s="7">
         <v>42968</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
+      <c r="B14" s="29">
+        <v>0.625</v>
+      </c>
+      <c r="C14" s="9">
+        <v>0.875</v>
+      </c>
       <c r="D14" s="4"/>
-      <c r="E14" s="8"/>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
       <c r="F14" s="5"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="19"/>
+      <c r="H14" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="25"/>
       <c r="O14" t="s">
         <v>5</v>
       </c>
@@ -1985,7 +2003,7 @@
       </c>
       <c r="E48" s="16">
         <f>SUM(E7:E47)</f>
-        <v>0.77083333333333326</v>
+        <v>1.1041666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="11">
   <si>
     <t>Datum</t>
   </si>
@@ -230,14 +230,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -249,13 +250,13 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -266,7 +267,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -547,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P48"/>
+  <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:N14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -559,7 +559,7 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +585,7 @@
       <c r="M2" s="14"/>
       <c r="N2" s="15"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="6"/>
@@ -593,15 +593,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="26" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-      <c r="K3" s="27"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="27"/>
-      <c r="N3" s="28"/>
+      <c r="H3" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="29"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -609,7 +609,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -617,15 +617,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18"/>
-      <c r="M4" s="18"/>
-      <c r="N4" s="19"/>
+      <c r="H4" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="26"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -633,7 +633,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
@@ -641,15 +641,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="18"/>
-      <c r="L5" s="18"/>
-      <c r="M5" s="18"/>
-      <c r="N5" s="19"/>
+      <c r="H5" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="26"/>
       <c r="O5" t="s">
         <v>5</v>
       </c>
@@ -657,7 +657,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
@@ -665,15 +665,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="19"/>
+      <c r="H6" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="25"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
+      <c r="N6" s="26"/>
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -681,7 +681,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="7">
         <v>42963</v>
       </c>
@@ -698,23 +698,24 @@
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="6"/>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="23"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
       <c r="P7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7">
         <v>42964</v>
       </c>
@@ -726,28 +727,26 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E14" si="0">C8-B8</f>
+        <f t="shared" ref="E8:E47" si="0">C8-B8</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="F8" s="5"/>
       <c r="G8" s="6"/>
-      <c r="H8" s="23" t="s">
+      <c r="H8" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="24"/>
-      <c r="N8" s="25"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="19"/>
+      <c r="M8" s="19"/>
+      <c r="N8" s="20"/>
       <c r="O8" t="s">
         <v>5</v>
       </c>
-      <c r="P8" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="P8" s="16"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="7">
         <v>42964</v>
       </c>
@@ -764,15 +763,15 @@
       </c>
       <c r="F9" s="5"/>
       <c r="G9" s="6"/>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="24"/>
-      <c r="N9" s="25"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="19"/>
+      <c r="N9" s="20"/>
       <c r="O9" t="s">
         <v>5</v>
       </c>
@@ -780,7 +779,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="7">
         <v>42965</v>
       </c>
@@ -797,15 +796,15 @@
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="6"/>
-      <c r="H10" s="23" t="s">
+      <c r="H10" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="25"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="19"/>
+      <c r="N10" s="20"/>
       <c r="O10" t="s">
         <v>5</v>
       </c>
@@ -813,7 +812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="7">
         <v>42965</v>
       </c>
@@ -830,15 +829,15 @@
       </c>
       <c r="F11" s="5"/>
       <c r="G11" s="6"/>
-      <c r="H11" s="23" t="s">
+      <c r="H11" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="25"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="19"/>
+      <c r="N11" s="20"/>
       <c r="O11" t="s">
         <v>5</v>
       </c>
@@ -846,7 +845,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="7">
         <v>42966</v>
       </c>
@@ -863,15 +862,15 @@
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
-      <c r="H12" s="23" t="s">
+      <c r="H12" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="24"/>
-      <c r="N12" s="25"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="19"/>
+      <c r="M12" s="19"/>
+      <c r="N12" s="20"/>
       <c r="O12" t="s">
         <v>5</v>
       </c>
@@ -879,7 +878,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="7">
         <v>42967</v>
       </c>
@@ -896,15 +895,15 @@
       </c>
       <c r="F13" s="5"/>
       <c r="G13" s="6"/>
-      <c r="H13" s="23" t="s">
+      <c r="H13" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="24"/>
-      <c r="N13" s="25"/>
+      <c r="I13" s="19"/>
+      <c r="J13" s="19"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="19"/>
+      <c r="N13" s="20"/>
       <c r="O13" t="s">
         <v>5</v>
       </c>
@@ -912,32 +911,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" s="7">
         <v>42968</v>
       </c>
-      <c r="B14" s="29">
-        <v>0.625</v>
+      <c r="B14" s="17">
+        <v>0.33333333333333331</v>
       </c>
       <c r="C14" s="9">
-        <v>0.875</v>
+        <v>0.58333333333333337</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="8">
         <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-      <c r="F14" s="5"/>
+        <v>0.25000000000000006</v>
+      </c>
+      <c r="F14" s="8"/>
       <c r="G14" s="6"/>
-      <c r="H14" s="23" t="s">
+      <c r="H14" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="24"/>
-      <c r="N14" s="25"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="19"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="19"/>
+      <c r="M14" s="19"/>
+      <c r="N14" s="20"/>
       <c r="O14" t="s">
         <v>5</v>
       </c>
@@ -945,33 +944,32 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="7">
         <v>42969</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
+      <c r="B15" s="8">
+        <v>0.45833333333333331</v>
+      </c>
+      <c r="C15" s="9">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D15" s="4"/>
-      <c r="E15" s="8"/>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
       <c r="F15" s="5"/>
       <c r="G15" s="6"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="5"/>
-      <c r="J15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M15" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N15" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H15" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="19"/>
+      <c r="J15" s="19"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="19"/>
+      <c r="M15" s="19"/>
+      <c r="N15" s="20"/>
       <c r="O15" t="s">
         <v>5</v>
       </c>
@@ -979,7 +977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="7">
         <v>42970</v>
       </c>
@@ -1470,7 +1468,7 @@
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
+      <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="4"/>
@@ -1498,7 +1496,7 @@
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="8"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
       <c r="H32" s="4"/>
@@ -1530,7 +1528,7 @@
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
       <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="8"/>
       <c r="F33" s="5"/>
       <c r="G33" s="6"/>
       <c r="H33" s="4"/>
@@ -1562,7 +1560,7 @@
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
       <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="8"/>
       <c r="F34" s="5"/>
       <c r="G34" s="6"/>
       <c r="H34" s="4"/>
@@ -1594,7 +1592,7 @@
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="8"/>
       <c r="F35" s="5"/>
       <c r="G35" s="6"/>
       <c r="H35" s="4"/>
@@ -1626,7 +1624,7 @@
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
       <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="8"/>
       <c r="F36" s="5"/>
       <c r="G36" s="6"/>
       <c r="H36" s="4"/>
@@ -1658,7 +1656,7 @@
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
       <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="8"/>
       <c r="F37" s="5"/>
       <c r="G37" s="6"/>
       <c r="H37" s="4"/>
@@ -1686,7 +1684,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
       <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="8"/>
       <c r="F38" s="5"/>
       <c r="G38" s="6"/>
       <c r="H38" s="4"/>
@@ -1718,7 +1716,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
       <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="8"/>
       <c r="F39" s="5"/>
       <c r="G39" s="6"/>
       <c r="H39" s="4"/>
@@ -1750,7 +1748,7 @@
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
       <c r="D40" s="4"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="8"/>
       <c r="F40" s="5"/>
       <c r="G40" s="6"/>
       <c r="H40" s="4"/>
@@ -1782,7 +1780,7 @@
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
       <c r="D41" s="4"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="8"/>
       <c r="F41" s="5"/>
       <c r="G41" s="6"/>
       <c r="H41" s="4"/>
@@ -1814,7 +1812,7 @@
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
       <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="8"/>
       <c r="F42" s="5"/>
       <c r="G42" s="6"/>
       <c r="H42" s="4"/>
@@ -1846,7 +1844,7 @@
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
       <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
+      <c r="E43" s="8"/>
       <c r="F43" s="5"/>
       <c r="G43" s="6"/>
       <c r="H43" s="4"/>
@@ -1874,7 +1872,7 @@
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
       <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
+      <c r="E44" s="8"/>
       <c r="F44" s="5"/>
       <c r="G44" s="6"/>
       <c r="H44" s="4"/>
@@ -1906,7 +1904,7 @@
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
       <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
+      <c r="E45" s="8"/>
       <c r="F45" s="5"/>
       <c r="G45" s="6"/>
       <c r="H45" s="4"/>
@@ -1938,7 +1936,7 @@
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
       <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
+      <c r="E46" s="8"/>
       <c r="F46" s="5"/>
       <c r="G46" s="6"/>
       <c r="H46" s="4"/>
@@ -1970,7 +1968,7 @@
       <c r="B47" s="11"/>
       <c r="C47" s="12"/>
       <c r="D47" s="10"/>
-      <c r="E47" s="11"/>
+      <c r="E47" s="8"/>
       <c r="F47" s="11"/>
       <c r="G47" s="12"/>
       <c r="H47" s="10"/>
@@ -2001,13 +1999,17 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="16">
-        <f>SUM(E7:E47)</f>
-        <v>1.1041666666666665</v>
+      <c r="E48" s="16"/>
+    </row>
+    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E49" s="16">
+        <f>SUM(E7,E8,E9,E10,E11,E12,E13,E14,E15)</f>
+        <v>1.1874999999999998</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="H15:N15"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H5:N5"/>
     <mergeCell ref="H4:N4"/>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="13">
   <si>
     <t>Datum</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t xml:space="preserve">LDPC-codes construction, Start Programming euclidian geometry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">LDPC-codes construction,  projective geometry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DSC for PUFs </t>
   </si>
 </sst>
 </file>
@@ -212,7 +218,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -240,15 +246,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -267,6 +264,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -549,8 +559,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,15 +603,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="H3" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
+      <c r="N3" s="26"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -617,15 +627,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="25"/>
-      <c r="J4" s="25"/>
-      <c r="K4" s="25"/>
-      <c r="L4" s="25"/>
-      <c r="M4" s="25"/>
-      <c r="N4" s="26"/>
+      <c r="H4" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="22"/>
+      <c r="L4" s="22"/>
+      <c r="M4" s="22"/>
+      <c r="N4" s="23"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -641,15 +651,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="25"/>
-      <c r="M5" s="25"/>
-      <c r="N5" s="26"/>
+      <c r="H5" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="22"/>
+      <c r="M5" s="22"/>
+      <c r="N5" s="23"/>
       <c r="O5" t="s">
         <v>5</v>
       </c>
@@ -665,15 +675,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="25"/>
-      <c r="J6" s="25"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="25"/>
-      <c r="M6" s="25"/>
-      <c r="N6" s="26"/>
+      <c r="H6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="23"/>
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -696,17 +706,20 @@
         <f>C7-B7</f>
         <v>0.18749999999999994</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="8">
+        <f>C7-B7</f>
+        <v>0.18749999999999994</v>
+      </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="28"/>
+      <c r="N7" s="29"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -727,10 +740,13 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="8">
-        <f t="shared" ref="E8:E47" si="0">C8-B8</f>
+        <f t="shared" ref="E8:E17" si="0">C8-B8</f>
         <v>0.16666666666666669</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="8">
+        <f t="shared" ref="F8:F17" si="1">C8-B8</f>
+        <v>0.16666666666666669</v>
+      </c>
       <c r="G8" s="6"/>
       <c r="H8" s="18" t="s">
         <v>8</v>
@@ -761,7 +777,10 @@
         <f t="shared" si="0"/>
         <v>0.10416666666666663</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="8">
+        <f t="shared" si="1"/>
+        <v>0.10416666666666663</v>
+      </c>
       <c r="G9" s="6"/>
       <c r="H9" s="18" t="s">
         <v>8</v>
@@ -794,7 +813,10 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F10" s="5"/>
+      <c r="F10" s="8">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="G10" s="6"/>
       <c r="H10" s="18" t="s">
         <v>8</v>
@@ -827,7 +849,10 @@
         <f t="shared" si="0"/>
         <v>8.333333333333337E-2</v>
       </c>
-      <c r="F11" s="5"/>
+      <c r="F11" s="8">
+        <f t="shared" si="1"/>
+        <v>8.333333333333337E-2</v>
+      </c>
       <c r="G11" s="6"/>
       <c r="H11" s="18" t="s">
         <v>9</v>
@@ -860,7 +885,10 @@
         <f t="shared" si="0"/>
         <v>0.14583333333333331</v>
       </c>
-      <c r="F12" s="5"/>
+      <c r="F12" s="8">
+        <f t="shared" si="1"/>
+        <v>0.14583333333333331</v>
+      </c>
       <c r="G12" s="6"/>
       <c r="H12" s="18" t="s">
         <v>9</v>
@@ -893,7 +921,10 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F13" s="5"/>
+      <c r="F13" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
       <c r="G13" s="6"/>
       <c r="H13" s="18" t="s">
         <v>9</v>
@@ -926,7 +957,10 @@
         <f t="shared" si="0"/>
         <v>0.25000000000000006</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8">
+        <f t="shared" si="1"/>
+        <v>0.25000000000000006</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="18" t="s">
         <v>10</v>
@@ -959,7 +993,10 @@
         <f t="shared" si="0"/>
         <v>8.3333333333333315E-2</v>
       </c>
-      <c r="F15" s="5"/>
+      <c r="F15" s="8">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333315E-2</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="18" t="s">
         <v>10</v>
@@ -981,29 +1018,31 @@
       <c r="A16" s="7">
         <v>42970</v>
       </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
+      <c r="B16" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C16" s="9">
+        <v>0.54166666666666663</v>
+      </c>
       <c r="D16" s="4"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="5"/>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>0.20833333333333331</v>
+      </c>
+      <c r="F16" s="8">
+        <f t="shared" si="1"/>
+        <v>0.20833333333333331</v>
+      </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="5"/>
-      <c r="J16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M16" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N16" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H16" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="31"/>
+      <c r="N16" s="32"/>
       <c r="O16" t="s">
         <v>5</v>
       </c>
@@ -1015,29 +1054,31 @@
       <c r="A17" s="7">
         <v>42971</v>
       </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
+      <c r="B17" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C17" s="9">
+        <v>0.625</v>
+      </c>
       <c r="D17" s="4"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="5"/>
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>0.29166666666666669</v>
+      </c>
+      <c r="F17" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666669</v>
+      </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N17" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H17" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="23"/>
       <c r="O17" t="s">
         <v>5</v>
       </c>
@@ -1055,23 +1096,15 @@
       <c r="E18" s="8"/>
       <c r="F18" s="5"/>
       <c r="G18" s="6"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M18" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N18" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="23"/>
       <c r="O18" t="s">
         <v>5</v>
       </c>
@@ -1999,16 +2032,24 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="16"/>
-    </row>
-    <row r="49" spans="5:5" x14ac:dyDescent="0.25">
-      <c r="E49" s="16">
-        <f>SUM(E7,E8,E9,E10,E11,E12,E13,E14,E15)</f>
-        <v>1.1874999999999998</v>
-      </c>
+      <c r="E48" s="33"/>
+      <c r="F48" s="16">
+        <f>SUM(F7:F13)</f>
+        <v>0.85416666666666652</v>
+      </c>
+      <c r="G48" s="16">
+        <f>SUM(F14:F40)</f>
+        <v>0.83333333333333348</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6" x14ac:dyDescent="0.25">
+      <c r="E49" s="16"/>
+      <c r="F49" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="13">
+  <mergeCells count="15">
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
     <mergeCell ref="H15:N15"/>
     <mergeCell ref="H6:N6"/>
     <mergeCell ref="H5:N5"/>

--- a/Organization/Kopie von Arbeitszeitplan .xlsx
+++ b/Organization/Kopie von Arbeitszeitplan .xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="14">
   <si>
     <t>Datum</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t xml:space="preserve">DSC for PUFs </t>
+  </si>
+  <si>
+    <t>Python</t>
   </si>
 </sst>
 </file>
@@ -237,6 +240,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -245,15 +261,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -273,10 +280,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -559,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:Q49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,15 +606,15 @@
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="6"/>
-      <c r="H3" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="25"/>
-      <c r="L3" s="25"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="26"/>
+      <c r="H3" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29"/>
+      <c r="N3" s="30"/>
       <c r="O3" t="s">
         <v>5</v>
       </c>
@@ -627,15 +630,15 @@
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="6"/>
-      <c r="H4" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
+      <c r="H4" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="24"/>
       <c r="O4" t="s">
         <v>5</v>
       </c>
@@ -651,15 +654,15 @@
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="6"/>
-      <c r="H5" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
+      <c r="H5" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="24"/>
       <c r="O5" t="s">
         <v>5</v>
       </c>
@@ -675,15 +678,15 @@
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="6"/>
-      <c r="H6" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
+      <c r="H6" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="24"/>
       <c r="O6" t="s">
         <v>5</v>
       </c>
@@ -711,15 +714,15 @@
         <v>0.18749999999999994</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="27" t="s">
+      <c r="H7" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="33"/>
       <c r="O7" t="s">
         <v>5</v>
       </c>
@@ -744,19 +747,19 @@
         <v>0.16666666666666669</v>
       </c>
       <c r="F8" s="8">
-        <f t="shared" ref="F8:F17" si="1">C8-B8</f>
+        <f t="shared" ref="F8:F29" si="1">C8-B8</f>
         <v>0.16666666666666669</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="20"/>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+      <c r="K8" s="26"/>
+      <c r="L8" s="26"/>
+      <c r="M8" s="26"/>
+      <c r="N8" s="27"/>
       <c r="O8" t="s">
         <v>5</v>
       </c>
@@ -782,15 +785,15 @@
         <v>0.10416666666666663</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="20"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
+      <c r="K9" s="26"/>
+      <c r="L9" s="26"/>
+      <c r="M9" s="26"/>
+      <c r="N9" s="27"/>
       <c r="O9" t="s">
         <v>5</v>
       </c>
@@ -818,15 +821,15 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="18" t="s">
+      <c r="H10" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="19"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="19"/>
-      <c r="N10" s="20"/>
+      <c r="I10" s="26"/>
+      <c r="J10" s="26"/>
+      <c r="K10" s="26"/>
+      <c r="L10" s="26"/>
+      <c r="M10" s="26"/>
+      <c r="N10" s="27"/>
       <c r="O10" t="s">
         <v>5</v>
       </c>
@@ -854,15 +857,15 @@
         <v>8.333333333333337E-2</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="18" t="s">
+      <c r="H11" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="19"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="20"/>
+      <c r="I11" s="26"/>
+      <c r="J11" s="26"/>
+      <c r="K11" s="26"/>
+      <c r="L11" s="26"/>
+      <c r="M11" s="26"/>
+      <c r="N11" s="27"/>
       <c r="O11" t="s">
         <v>5</v>
       </c>
@@ -890,15 +893,15 @@
         <v>0.14583333333333331</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="20"/>
+      <c r="I12" s="26"/>
+      <c r="J12" s="26"/>
+      <c r="K12" s="26"/>
+      <c r="L12" s="26"/>
+      <c r="M12" s="26"/>
+      <c r="N12" s="27"/>
       <c r="O12" t="s">
         <v>5</v>
       </c>
@@ -926,15 +929,15 @@
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="18" t="s">
+      <c r="H13" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="20"/>
+      <c r="I13" s="26"/>
+      <c r="J13" s="26"/>
+      <c r="K13" s="26"/>
+      <c r="L13" s="26"/>
+      <c r="M13" s="26"/>
+      <c r="N13" s="27"/>
       <c r="O13" t="s">
         <v>5</v>
       </c>
@@ -962,15 +965,15 @@
         <v>0.25000000000000006</v>
       </c>
       <c r="G14" s="6"/>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="20"/>
+      <c r="I14" s="26"/>
+      <c r="J14" s="26"/>
+      <c r="K14" s="26"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="26"/>
+      <c r="N14" s="27"/>
       <c r="O14" t="s">
         <v>5</v>
       </c>
@@ -998,15 +1001,15 @@
         <v>8.3333333333333315E-2</v>
       </c>
       <c r="G15" s="6"/>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="20"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="27"/>
       <c r="O15" t="s">
         <v>5</v>
       </c>
@@ -1034,15 +1037,15 @@
         <v>0.20833333333333331</v>
       </c>
       <c r="G16" s="6"/>
-      <c r="H16" s="30" t="s">
+      <c r="H16" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="32"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="19"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="20"/>
       <c r="O16" t="s">
         <v>5</v>
       </c>
@@ -1070,15 +1073,15 @@
         <v>0.29166666666666669</v>
       </c>
       <c r="G17" s="6"/>
-      <c r="H17" s="21" t="s">
+      <c r="H17" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="23"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="24"/>
       <c r="O17" t="s">
         <v>5</v>
       </c>
@@ -1094,17 +1097,20 @@
       <c r="C18" s="6"/>
       <c r="D18" s="4"/>
       <c r="E18" s="8"/>
-      <c r="F18" s="5"/>
+      <c r="F18" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G18" s="6"/>
-      <c r="H18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
+      <c r="H18" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I18" s="23"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="23"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="24"/>
       <c r="O18" t="s">
         <v>5</v>
       </c>
@@ -1116,25 +1122,28 @@
       <c r="A19" s="7">
         <v>42973</v>
       </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
+      <c r="B19" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C19" s="9">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="D19" s="4"/>
       <c r="E19" s="8"/>
-      <c r="F19" s="5"/>
+      <c r="F19" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666674</v>
+      </c>
       <c r="G19" s="6"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="5"/>
-      <c r="J19" s="5"/>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M19" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N19" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H19" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I19" s="23"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="23"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="24"/>
       <c r="O19" t="s">
         <v>5</v>
       </c>
@@ -1146,29 +1155,28 @@
       <c r="A20" s="7">
         <v>42974</v>
       </c>
-      <c r="B20" s="5"/>
-      <c r="C20" s="6"/>
+      <c r="B20" s="8">
+        <v>0.375</v>
+      </c>
+      <c r="C20" s="9">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="D20" s="4"/>
       <c r="E20" s="8"/>
-      <c r="F20" s="5"/>
+      <c r="F20" s="8">
+        <f t="shared" si="1"/>
+        <v>0.29166666666666663</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M20" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N20" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H20" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="24"/>
       <c r="O20" t="s">
         <v>5</v>
       </c>
@@ -1180,29 +1188,28 @@
       <c r="A21" s="7">
         <v>42975</v>
       </c>
-      <c r="B21" s="5"/>
-      <c r="C21" s="6"/>
+      <c r="B21" s="8">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="5"/>
+      <c r="F21" s="8">
+        <f t="shared" si="1"/>
+        <v>4.1666666666666741E-2</v>
+      </c>
       <c r="G21" s="6"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M21" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H21" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I21" s="23"/>
+      <c r="J21" s="23"/>
+      <c r="K21" s="23"/>
+      <c r="L21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="24"/>
       <c r="O21" t="s">
         <v>5</v>
       </c>
@@ -1218,25 +1225,20 @@
       <c r="C22" s="6"/>
       <c r="D22" s="4"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="5"/>
+      <c r="F22" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G22" s="6"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M22" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H22" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I22" s="23"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="24"/>
       <c r="O22" t="s">
         <v>5</v>
       </c>
@@ -1245,30 +1247,27 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7">
+        <v>42977</v>
+      </c>
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
       <c r="D23" s="4"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="5"/>
+      <c r="F23" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G23" s="6"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N23" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H23" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="24"/>
       <c r="O23" t="s">
         <v>5</v>
       </c>
@@ -1277,30 +1276,27 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7">
+        <v>42978</v>
+      </c>
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
       <c r="D24" s="4"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="5"/>
+      <c r="F24" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G24" s="6"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M24" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N24" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H24" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="24"/>
       <c r="O24" t="s">
         <v>5</v>
       </c>
@@ -1309,26 +1305,27 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7">
+        <v>42979</v>
+      </c>
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
       <c r="D25" s="4"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="5"/>
+      <c r="F25" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G25" s="6"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M25" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N25" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H25" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="24"/>
       <c r="O25" t="s">
         <v>5</v>
       </c>
@@ -1337,30 +1334,27 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7">
+        <v>42980</v>
+      </c>
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
       <c r="D26" s="4"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="5"/>
+      <c r="F26" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G26" s="6"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="5"/>
-      <c r="J26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M26" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N26" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H26" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="24"/>
       <c r="O26" t="s">
         <v>5</v>
       </c>
@@ -1369,30 +1363,27 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7">
+        <v>42981</v>
+      </c>
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
       <c r="D27" s="4"/>
       <c r="E27" s="8"/>
-      <c r="F27" s="5"/>
+      <c r="F27" s="8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="G27" s="6"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="5"/>
-      <c r="J27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M27" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N27" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H27" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="24"/>
       <c r="O27" t="s">
         <v>5</v>
       </c>
@@ -1401,30 +1392,31 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
+      <c r="A28" s="7">
+        <v>42982</v>
+      </c>
+      <c r="B28" s="8">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C28" s="9">
+        <v>0.45833333333333331</v>
+      </c>
       <c r="D28" s="4"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="5"/>
+      <c r="F28" s="8">
+        <f t="shared" si="1"/>
+        <v>0.125</v>
+      </c>
       <c r="G28" s="6"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M28" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N28" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H28" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="24"/>
       <c r="O28" t="s">
         <v>5</v>
       </c>
@@ -1433,30 +1425,31 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
+      <c r="A29" s="7">
+        <v>42983</v>
+      </c>
+      <c r="B29" s="8">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="9">
+        <v>0.91666666666666663</v>
+      </c>
       <c r="D29" s="4"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="5"/>
+      <c r="F29" s="8">
+        <f t="shared" si="1"/>
+        <v>0.16666666666666663</v>
+      </c>
       <c r="G29" s="6"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N29" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H29" s="22" t="s">
+        <v>13</v>
+      </c>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="24"/>
       <c r="O29" t="s">
         <v>5</v>
       </c>
@@ -1465,30 +1458,24 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7">
+        <v>42984</v>
+      </c>
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
       <c r="D30" s="4"/>
       <c r="E30" s="8"/>
       <c r="F30" s="5"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M30" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N30" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H30" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="24"/>
       <c r="O30" t="s">
         <v>5</v>
       </c>
@@ -1497,26 +1484,24 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7">
+        <v>42985</v>
+      </c>
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
       <c r="D31" s="4"/>
       <c r="E31" s="8"/>
       <c r="F31" s="5"/>
       <c r="G31" s="6"/>
-      <c r="H31" s="4"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M31" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N31" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H31" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I31" s="23"/>
+      <c r="J31" s="23"/>
+      <c r="K31" s="23"/>
+      <c r="L31" s="23"/>
+      <c r="M31" s="23"/>
+      <c r="N31" s="24"/>
       <c r="O31" t="s">
         <v>5</v>
       </c>
@@ -1525,30 +1510,24 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A32" s="4"/>
+      <c r="A32" s="7">
+        <v>42986</v>
+      </c>
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
       <c r="D32" s="4"/>
       <c r="E32" s="8"/>
       <c r="F32" s="5"/>
       <c r="G32" s="6"/>
-      <c r="H32" s="4"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="M32" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="N32" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="H32" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="I32" s="23"/>
+      <c r="J32" s="23"/>
+      <c r="K32" s="23"/>
+      <c r="L32" s="23"/>
+      <c r="M32" s="23"/>
+      <c r="N32" s="24"/>
       <c r="O32" t="s">
         <v>5</v>
       </c>
@@ -2032,14 +2011,14 @@
       <c r="A48" t="s">
         <v>6</v>
       </c>
-      <c r="E48" s="33"/>
+      <c r="E48" s="21"/>
       <c r="F48" s="16">
         <f>SUM(F7:F13)</f>
         <v>0.85416666666666652</v>
       </c>
       <c r="G48" s="16">
-        <f>SUM(F14:F40)</f>
-        <v>0.83333333333333348</v>
+        <f>SUM(F7,F8,F9,F10,F11,F12,F13,F15,F16,F17,F19,F20,F21,F28,F29)</f>
+        <v>2.2291666666666665</v>
       </c>
     </row>
     <row r="49" spans="5:6" x14ac:dyDescent="0.25">
@@ -2047,12 +2026,21 @@
       <c r="F49" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="H17:N17"/>
-    <mergeCell ref="H18:N18"/>
-    <mergeCell ref="H15:N15"/>
-    <mergeCell ref="H6:N6"/>
-    <mergeCell ref="H5:N5"/>
+  <mergeCells count="29">
+    <mergeCell ref="H29:N29"/>
+    <mergeCell ref="H30:N30"/>
+    <mergeCell ref="H31:N31"/>
+    <mergeCell ref="H32:N32"/>
+    <mergeCell ref="H24:N24"/>
+    <mergeCell ref="H25:N25"/>
+    <mergeCell ref="H26:N26"/>
+    <mergeCell ref="H27:N27"/>
+    <mergeCell ref="H28:N28"/>
+    <mergeCell ref="H19:N19"/>
+    <mergeCell ref="H20:N20"/>
+    <mergeCell ref="H21:N21"/>
+    <mergeCell ref="H22:N22"/>
+    <mergeCell ref="H23:N23"/>
     <mergeCell ref="H4:N4"/>
     <mergeCell ref="H3:N3"/>
     <mergeCell ref="H13:N13"/>
@@ -2063,6 +2051,11 @@
     <mergeCell ref="H10:N10"/>
     <mergeCell ref="H11:N11"/>
     <mergeCell ref="H12:N12"/>
+    <mergeCell ref="H17:N17"/>
+    <mergeCell ref="H18:N18"/>
+    <mergeCell ref="H15:N15"/>
+    <mergeCell ref="H6:N6"/>
+    <mergeCell ref="H5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
